--- a/ResultadoEleicoesDistritos/VISEU_PENALVA DO CASTELO.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_PENALVA DO CASTELO.xlsx
@@ -597,64 +597,64 @@
         <v>2174</v>
       </c>
       <c r="H2" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I2" t="n">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="J2" t="n">
-        <v>915</v>
+        <v>846</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="M2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S2" t="n">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="T2" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="U2" t="n">
         <v>11</v>
       </c>
       <c r="V2" t="n">
-        <v>1381</v>
+        <v>1416</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1376</v>
+        <v>1390</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
